--- a/data/pca/factorExposure/factorExposure_2015-01-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-01-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +720,54 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.01365059077840195</v>
+        <v>0.01031016506508237</v>
       </c>
       <c r="C2">
-        <v>0.03574015905304679</v>
+        <v>-0.0524485886012432</v>
       </c>
       <c r="D2">
-        <v>0.1272127817295208</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.07258000158872135</v>
+      </c>
+      <c r="E2">
+        <v>-0.09998677598824213</v>
+      </c>
+      <c r="F2">
+        <v>-0.1455718909747793</v>
+      </c>
+      <c r="G2">
+        <v>-0.06033981418875131</v>
+      </c>
+      <c r="H2">
+        <v>-0.06986125178412839</v>
+      </c>
+      <c r="I2">
+        <v>0.02414723233323605</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +778,54 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.03719800661076283</v>
+        <v>0.01827745258859741</v>
       </c>
       <c r="C4">
-        <v>0.1223710948020954</v>
+        <v>-0.1424830457968957</v>
       </c>
       <c r="D4">
-        <v>0.0857000909058252</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.03590159926738516</v>
+      </c>
+      <c r="E4">
+        <v>-0.07304349629498062</v>
+      </c>
+      <c r="F4">
+        <v>-0.105901796493829</v>
+      </c>
+      <c r="G4">
+        <v>0.05970556343029647</v>
+      </c>
+      <c r="H4">
+        <v>0.018507933330568</v>
+      </c>
+      <c r="I4">
+        <v>0.07923591955817827</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.02098465104727582</v>
+        <v>0.02994807065669915</v>
       </c>
       <c r="C6">
-        <v>0.04646481487506089</v>
+        <v>-0.05590737491169892</v>
       </c>
       <c r="D6">
-        <v>0.07582912234136258</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.04362029631575555</v>
+      </c>
+      <c r="E6">
+        <v>-0.08554560628925806</v>
+      </c>
+      <c r="F6">
+        <v>-0.05614157222807963</v>
+      </c>
+      <c r="G6">
+        <v>-0.03945210613980545</v>
+      </c>
+      <c r="H6">
+        <v>0.03695021355453072</v>
+      </c>
+      <c r="I6">
+        <v>0.01803734060059463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.01042191442655573</v>
+        <v>0.004621267554082752</v>
       </c>
       <c r="C7">
-        <v>0.04225908908068795</v>
+        <v>-0.05645497035589532</v>
       </c>
       <c r="D7">
-        <v>0.06514672732958271</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04040996092731101</v>
+      </c>
+      <c r="E7">
+        <v>-0.06895046368884365</v>
+      </c>
+      <c r="F7">
+        <v>-0.009770826858441771</v>
+      </c>
+      <c r="G7">
+        <v>0.01320653762083286</v>
+      </c>
+      <c r="H7">
+        <v>0.03840582422369453</v>
+      </c>
+      <c r="I7">
+        <v>0.08633689294772273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.003949521251291429</v>
+        <v>-0.007066076942174192</v>
       </c>
       <c r="C8">
-        <v>0.04753044132903329</v>
+        <v>-0.05588130262243965</v>
       </c>
       <c r="D8">
-        <v>0.07225226377429467</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02118481894663769</v>
+      </c>
+      <c r="E8">
+        <v>-0.06377270508030243</v>
+      </c>
+      <c r="F8">
+        <v>-0.08553013361387553</v>
+      </c>
+      <c r="G8">
+        <v>0.03038314328597422</v>
+      </c>
+      <c r="H8">
+        <v>-0.05124302414097895</v>
+      </c>
+      <c r="I8">
+        <v>0.01882491469471524</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.02233835208185272</v>
+        <v>0.01060475484326376</v>
       </c>
       <c r="C9">
-        <v>0.09881622578838843</v>
+        <v>-0.1128382471390836</v>
       </c>
       <c r="D9">
-        <v>0.07886158325035149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.03370479463419468</v>
+      </c>
+      <c r="E9">
+        <v>-0.06258288145807464</v>
+      </c>
+      <c r="F9">
+        <v>-0.07218618442308902</v>
+      </c>
+      <c r="G9">
+        <v>0.006068493229970838</v>
+      </c>
+      <c r="H9">
+        <v>0.03449706741873627</v>
+      </c>
+      <c r="I9">
+        <v>0.08242458955857364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.218274566042853</v>
+        <v>0.2405708880654368</v>
       </c>
       <c r="C10">
-        <v>-0.1106185765694058</v>
+        <v>0.08299245699809364</v>
       </c>
       <c r="D10">
-        <v>-0.04319432215314551</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01669307573587744</v>
+      </c>
+      <c r="E10">
+        <v>0.02073832949643037</v>
+      </c>
+      <c r="F10">
+        <v>-0.01223694181940292</v>
+      </c>
+      <c r="G10">
+        <v>0.00120589803896005</v>
+      </c>
+      <c r="H10">
+        <v>0.02782418112643489</v>
+      </c>
+      <c r="I10">
+        <v>0.05073465598902513</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.00892388935429007</v>
+        <v>0.01129584839329827</v>
       </c>
       <c r="C11">
-        <v>0.04639202779369067</v>
+        <v>-0.06690949575215027</v>
       </c>
       <c r="D11">
-        <v>0.04716473284908602</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.01977950685343655</v>
+      </c>
+      <c r="E11">
+        <v>-0.05308530719091226</v>
+      </c>
+      <c r="F11">
+        <v>-0.006271871648455742</v>
+      </c>
+      <c r="G11">
+        <v>0.01196582228564079</v>
+      </c>
+      <c r="H11">
+        <v>0.03181352498886232</v>
+      </c>
+      <c r="I11">
+        <v>0.04258441782086237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.01096007719565471</v>
+        <v>0.01226852664518982</v>
       </c>
       <c r="C12">
-        <v>0.05095638332923019</v>
+        <v>-0.05876590062076989</v>
       </c>
       <c r="D12">
-        <v>0.05155157444515376</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02543715416920419</v>
+      </c>
+      <c r="E12">
+        <v>-0.040546656584893</v>
+      </c>
+      <c r="F12">
+        <v>0.005570116345836199</v>
+      </c>
+      <c r="G12">
+        <v>-0.01568610683537156</v>
+      </c>
+      <c r="H12">
+        <v>0.024968741935052</v>
+      </c>
+      <c r="I12">
+        <v>0.05046901206637888</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.01770575967545781</v>
+        <v>0.003582979038515023</v>
       </c>
       <c r="C13">
-        <v>0.05882757387000261</v>
+        <v>-0.08963034478228185</v>
       </c>
       <c r="D13">
-        <v>0.123558555311322</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.082027059708403</v>
+      </c>
+      <c r="E13">
+        <v>-0.1184052759510196</v>
+      </c>
+      <c r="F13">
+        <v>-0.05320459391725216</v>
+      </c>
+      <c r="G13">
+        <v>-0.1072971974909644</v>
+      </c>
+      <c r="H13">
+        <v>0.02397516546810535</v>
+      </c>
+      <c r="I13">
+        <v>0.08766769911092545</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.006441367419075883</v>
+        <v>0.004137230009740216</v>
       </c>
       <c r="C14">
-        <v>0.02719210973224769</v>
+        <v>-0.05101931871258369</v>
       </c>
       <c r="D14">
-        <v>0.05977858058361845</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02755230644459028</v>
+      </c>
+      <c r="E14">
+        <v>-0.105466436763064</v>
+      </c>
+      <c r="F14">
+        <v>-0.02368081338073234</v>
+      </c>
+      <c r="G14">
+        <v>-0.03964970344009298</v>
+      </c>
+      <c r="H14">
+        <v>0.05304164916795812</v>
+      </c>
+      <c r="I14">
+        <v>0.1419108087039358</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.001938704522518965</v>
+        <v>-0.004508966035598819</v>
       </c>
       <c r="C15">
-        <v>0.0248222432007482</v>
+        <v>-0.04550386685316999</v>
       </c>
       <c r="D15">
-        <v>0.07111225888747758</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.03845810565788046</v>
+      </c>
+      <c r="E15">
+        <v>-0.07212534496970924</v>
+      </c>
+      <c r="F15">
+        <v>-0.02266811116724608</v>
+      </c>
+      <c r="G15">
+        <v>0.006550031103667741</v>
+      </c>
+      <c r="H15">
+        <v>0.008506263551172052</v>
+      </c>
+      <c r="I15">
+        <v>0.05288816276669626</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.007554821572169581</v>
+        <v>0.009696793165083491</v>
       </c>
       <c r="C16">
-        <v>0.04399575967078973</v>
+        <v>-0.05825120573700582</v>
       </c>
       <c r="D16">
-        <v>0.04120300515887218</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.0223679651974333</v>
+      </c>
+      <c r="E16">
+        <v>-0.03923205970297367</v>
+      </c>
+      <c r="F16">
+        <v>-0.0005474552400859573</v>
+      </c>
+      <c r="G16">
+        <v>-0.003342453456775955</v>
+      </c>
+      <c r="H16">
+        <v>0.03575655714523164</v>
+      </c>
+      <c r="I16">
+        <v>0.04170132139345682</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1213,257 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.01057086103862669</v>
+        <v>0.004210627293326026</v>
       </c>
       <c r="C19">
-        <v>0.01716192113324415</v>
+        <v>-0.01310783454123359</v>
       </c>
       <c r="D19">
-        <v>0.02517510032332835</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.000343274635906591</v>
+      </c>
+      <c r="E19">
+        <v>-0.01023725900030196</v>
+      </c>
+      <c r="F19">
+        <v>0.01221644118403316</v>
+      </c>
+      <c r="G19">
+        <v>-0.004651875073811373</v>
+      </c>
+      <c r="H19">
+        <v>-0.02582229429548294</v>
+      </c>
+      <c r="I19">
+        <v>0.02600476126941742</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.002459584896791292</v>
+        <v>0.001894464421416385</v>
       </c>
       <c r="C20">
-        <v>0.04477153442861464</v>
+        <v>-0.06501972967910158</v>
       </c>
       <c r="D20">
-        <v>0.06105933981459672</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03907347998751853</v>
+      </c>
+      <c r="E20">
+        <v>-0.06438246255372439</v>
+      </c>
+      <c r="F20">
+        <v>-0.01024422831681121</v>
+      </c>
+      <c r="G20">
+        <v>0.01369002994831209</v>
+      </c>
+      <c r="H20">
+        <v>0.06012294447567777</v>
+      </c>
+      <c r="I20">
+        <v>0.06658057036418157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.01204465825678495</v>
+        <v>0.007365311431209414</v>
       </c>
       <c r="C21">
-        <v>0.0677516418904944</v>
+        <v>-0.07459324322231278</v>
       </c>
       <c r="D21">
-        <v>0.08731477404394201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03515410130769115</v>
+      </c>
+      <c r="E21">
+        <v>-0.08143946570569374</v>
+      </c>
+      <c r="F21">
+        <v>-0.06209845359741027</v>
+      </c>
+      <c r="G21">
+        <v>-0.1062916550074781</v>
+      </c>
+      <c r="H21">
+        <v>-0.01366261565963787</v>
+      </c>
+      <c r="I21">
+        <v>0.1884790412048384</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.003903378598649276</v>
+        <v>-0.0114495191657712</v>
       </c>
       <c r="C22">
-        <v>0.06942100930158338</v>
+        <v>-0.1028416940302524</v>
       </c>
       <c r="D22">
-        <v>0.1883096009399552</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1666957862071892</v>
+      </c>
+      <c r="E22">
+        <v>-0.1617900256492724</v>
+      </c>
+      <c r="F22">
+        <v>-0.2821943242200198</v>
+      </c>
+      <c r="G22">
+        <v>0.1391836809757389</v>
+      </c>
+      <c r="H22">
+        <v>-0.223466875631793</v>
+      </c>
+      <c r="I22">
+        <v>-0.4241995011035367</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.00397211117321856</v>
+        <v>-0.008208812388358716</v>
       </c>
       <c r="C23">
-        <v>0.07060338342987992</v>
+        <v>-0.1056916281208373</v>
       </c>
       <c r="D23">
-        <v>0.1878443977710198</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1690721154825956</v>
+      </c>
+      <c r="E23">
+        <v>-0.1590482770687265</v>
+      </c>
+      <c r="F23">
+        <v>-0.2774252820162498</v>
+      </c>
+      <c r="G23">
+        <v>0.1320319519057798</v>
+      </c>
+      <c r="H23">
+        <v>-0.2142349585791532</v>
+      </c>
+      <c r="I23">
+        <v>-0.3966019075652729</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.01033508193328296</v>
+        <v>0.01133933644492709</v>
       </c>
       <c r="C24">
-        <v>0.06672765539091982</v>
+        <v>-0.07552018342416235</v>
       </c>
       <c r="D24">
-        <v>0.05404244630302119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.01552906950412603</v>
+      </c>
+      <c r="E24">
+        <v>-0.05352976600442176</v>
+      </c>
+      <c r="F24">
+        <v>-0.001738898269378455</v>
+      </c>
+      <c r="G24">
+        <v>0.001220862278133888</v>
+      </c>
+      <c r="H24">
+        <v>0.02537861146930577</v>
+      </c>
+      <c r="I24">
+        <v>0.06107780921423506</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.01341873218922873</v>
+        <v>0.01588931595521037</v>
       </c>
       <c r="C25">
-        <v>0.05693981108302239</v>
+        <v>-0.06797830086535635</v>
       </c>
       <c r="D25">
-        <v>0.04252926247397995</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01761092992599516</v>
+      </c>
+      <c r="E25">
+        <v>-0.03923090709764735</v>
+      </c>
+      <c r="F25">
+        <v>-0.005426875310271836</v>
+      </c>
+      <c r="G25">
+        <v>0.005890534035141269</v>
+      </c>
+      <c r="H25">
+        <v>0.03339300740898033</v>
+      </c>
+      <c r="I25">
+        <v>0.04180030694458452</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.007433893261585873</v>
+        <v>0.01734504512905201</v>
       </c>
       <c r="C26">
-        <v>0.03210842652107941</v>
+        <v>-0.05047734729092438</v>
       </c>
       <c r="D26">
-        <v>0.05185944004491779</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.0010079261512265</v>
+      </c>
+      <c r="E26">
+        <v>-0.08228799080955165</v>
+      </c>
+      <c r="F26">
+        <v>-0.03467034978552822</v>
+      </c>
+      <c r="G26">
+        <v>-0.007860867516871942</v>
+      </c>
+      <c r="H26">
+        <v>0.02413166578357007</v>
+      </c>
+      <c r="I26">
+        <v>0.1268624324309794</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.3059372767410911</v>
+        <v>0.3145052750295133</v>
       </c>
       <c r="C28">
-        <v>-0.1278685021948705</v>
+        <v>0.09666248333776027</v>
       </c>
       <c r="D28">
-        <v>-0.03391684718669026</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01392243771563947</v>
+      </c>
+      <c r="E28">
+        <v>0.03586859926444343</v>
+      </c>
+      <c r="F28">
+        <v>-0.05554502459699041</v>
+      </c>
+      <c r="G28">
+        <v>0.04521456793293991</v>
+      </c>
+      <c r="H28">
+        <v>-0.04413212135080141</v>
+      </c>
+      <c r="I28">
+        <v>0.07058264105002009</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.002828158543963204</v>
+        <v>0.003489119148611391</v>
       </c>
       <c r="C29">
-        <v>0.03642800632996817</v>
+        <v>-0.06069719249624942</v>
       </c>
       <c r="D29">
-        <v>0.06982138211049385</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03975790671738381</v>
+      </c>
+      <c r="E29">
+        <v>-0.1124886711923619</v>
+      </c>
+      <c r="F29">
+        <v>-0.02611229010513244</v>
+      </c>
+      <c r="G29">
+        <v>-0.05900699204271841</v>
+      </c>
+      <c r="H29">
+        <v>0.07731801671917982</v>
+      </c>
+      <c r="I29">
+        <v>0.1778112593222312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.0232883939432494</v>
+        <v>0.01928030980874351</v>
       </c>
       <c r="C30">
-        <v>0.09546912299175737</v>
+        <v>-0.1187137506839101</v>
       </c>
       <c r="D30">
-        <v>0.1264951571986894</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.06057834503006569</v>
+      </c>
+      <c r="E30">
+        <v>-0.1128612504547126</v>
+      </c>
+      <c r="F30">
+        <v>-0.06094889310642772</v>
+      </c>
+      <c r="G30">
+        <v>0.01802577001647012</v>
+      </c>
+      <c r="H30">
+        <v>0.007878725048650731</v>
+      </c>
+      <c r="I30">
+        <v>0.02370607320102895</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.01313150245717094</v>
+        <v>0.009079807276782441</v>
       </c>
       <c r="C31">
-        <v>0.09524997054663316</v>
+        <v>-0.1014953564751176</v>
       </c>
       <c r="D31">
-        <v>0.03407103346738092</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0006436594312948863</v>
+      </c>
+      <c r="E31">
+        <v>-0.02795537128869555</v>
+      </c>
+      <c r="F31">
+        <v>-0.001171291504674476</v>
+      </c>
+      <c r="G31">
+        <v>0.0008229648028985212</v>
+      </c>
+      <c r="H31">
+        <v>-0.02410026727050906</v>
+      </c>
+      <c r="I31">
+        <v>0.0597762802939824</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.01949171020479264</v>
+        <v>0.01557840077631943</v>
       </c>
       <c r="C32">
-        <v>0.05409054062475043</v>
+        <v>-0.06149116173598231</v>
       </c>
       <c r="D32">
-        <v>0.09127059565180398</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03566011925532923</v>
+      </c>
+      <c r="E32">
+        <v>-0.06032575754434914</v>
+      </c>
+      <c r="F32">
+        <v>-0.1090338892552557</v>
+      </c>
+      <c r="G32">
+        <v>-0.0428078364137988</v>
+      </c>
+      <c r="H32">
+        <v>0.0005423712945511188</v>
+      </c>
+      <c r="I32">
+        <v>0.1020596388295744</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.006099896302731414</v>
+        <v>0.009403680459376437</v>
       </c>
       <c r="C33">
-        <v>0.06107827543032512</v>
+        <v>-0.08624089646779386</v>
       </c>
       <c r="D33">
-        <v>0.08077264971095824</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04845866858776231</v>
+      </c>
+      <c r="E33">
+        <v>-0.07973260908026739</v>
+      </c>
+      <c r="F33">
+        <v>-0.02190985186250264</v>
+      </c>
+      <c r="G33">
+        <v>-0.002213873544499187</v>
+      </c>
+      <c r="H33">
+        <v>0.03341618150774085</v>
+      </c>
+      <c r="I33">
+        <v>0.06161442209031544</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.0115393899826707</v>
+        <v>0.01270904738803726</v>
       </c>
       <c r="C34">
-        <v>0.06341705427939529</v>
+        <v>-0.06396412582971983</v>
       </c>
       <c r="D34">
-        <v>0.06396338300803449</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.01482269708655144</v>
+      </c>
+      <c r="E34">
+        <v>-0.04421887052506404</v>
+      </c>
+      <c r="F34">
+        <v>0.0277836021325894</v>
+      </c>
+      <c r="G34">
+        <v>-0.005713665609688307</v>
+      </c>
+      <c r="H34">
+        <v>0.007137062043865405</v>
+      </c>
+      <c r="I34">
+        <v>0.0284154247632322</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>-0.001481581280622203</v>
+        <v>0.004635572951980974</v>
       </c>
       <c r="C35">
-        <v>0.00193870757406923</v>
+        <v>-0.02294582160075576</v>
       </c>
       <c r="D35">
-        <v>0.007238357911624077</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01360970214305231</v>
+      </c>
+      <c r="E35">
+        <v>-0.04126658480383028</v>
+      </c>
+      <c r="F35">
+        <v>-0.02216964582435383</v>
+      </c>
+      <c r="G35">
+        <v>-0.01658287860202179</v>
+      </c>
+      <c r="H35">
+        <v>0.04819770320815661</v>
+      </c>
+      <c r="I35">
+        <v>0.1030689696050209</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.005300846311290745</v>
+        <v>0.00989553131520487</v>
       </c>
       <c r="C36">
-        <v>0.02895951096945238</v>
+        <v>-0.0407991740966285</v>
       </c>
       <c r="D36">
-        <v>0.03940169911690777</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.009227854126585947</v>
+      </c>
+      <c r="E36">
+        <v>-0.06556291541240243</v>
+      </c>
+      <c r="F36">
+        <v>-0.038969646012093</v>
+      </c>
+      <c r="G36">
+        <v>-0.007009278319905276</v>
+      </c>
+      <c r="H36">
+        <v>0.02609204731258691</v>
+      </c>
+      <c r="I36">
+        <v>0.07316895188935289</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.005668482475330123</v>
+        <v>0.007861823341034763</v>
       </c>
       <c r="C38">
-        <v>0.01836543499706037</v>
+        <v>-0.04262112118744655</v>
       </c>
       <c r="D38">
-        <v>0.06511019345092041</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.03833677699512046</v>
+      </c>
+      <c r="E38">
+        <v>-0.07615477956718754</v>
+      </c>
+      <c r="F38">
+        <v>-0.01481454621439819</v>
+      </c>
+      <c r="G38">
+        <v>0.04934516478011244</v>
+      </c>
+      <c r="H38">
+        <v>-0.001602123755492463</v>
+      </c>
+      <c r="I38">
+        <v>0.08054701997455124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.01209004495023748</v>
+        <v>0.009611172068292973</v>
       </c>
       <c r="C39">
-        <v>0.08079751394862245</v>
+        <v>-0.1057770824279357</v>
       </c>
       <c r="D39">
-        <v>0.1043360013552711</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.03384476900694353</v>
+      </c>
+      <c r="E39">
+        <v>-0.0952761696551528</v>
+      </c>
+      <c r="F39">
+        <v>0.001133722455204066</v>
+      </c>
+      <c r="G39">
+        <v>-0.01343485274853693</v>
+      </c>
+      <c r="H39">
+        <v>0.03666041395280429</v>
+      </c>
+      <c r="I39">
+        <v>0.05389426775713357</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.004350518551596052</v>
+        <v>0.008918621038520862</v>
       </c>
       <c r="C40">
-        <v>0.02786620053404519</v>
+        <v>-0.05147992042463553</v>
       </c>
       <c r="D40">
-        <v>0.1001772247158401</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.0622545065302838</v>
+      </c>
+      <c r="E40">
+        <v>-0.1181987565355351</v>
+      </c>
+      <c r="F40">
+        <v>0.006703373983960492</v>
+      </c>
+      <c r="G40">
+        <v>-0.02194902239847556</v>
+      </c>
+      <c r="H40">
+        <v>0.03060501136563709</v>
+      </c>
+      <c r="I40">
+        <v>0.008771524782160485</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.007915430181539349</v>
+        <v>0.01721131845666218</v>
       </c>
       <c r="C41">
-        <v>0.02182485838544286</v>
+        <v>-0.04052362101749042</v>
       </c>
       <c r="D41">
-        <v>0.01637899446457022</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01447747049805171</v>
+      </c>
+      <c r="E41">
+        <v>-0.01826625168647183</v>
+      </c>
+      <c r="F41">
+        <v>0.01068060777860105</v>
+      </c>
+      <c r="G41">
+        <v>0.006903221941977746</v>
+      </c>
+      <c r="H41">
+        <v>0.007735517403950097</v>
+      </c>
+      <c r="I41">
+        <v>0.04380458001315385</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.004095032505677416</v>
+        <v>0.00798941262064645</v>
       </c>
       <c r="C43">
-        <v>0.01806759208625403</v>
+        <v>-0.03357567440089723</v>
       </c>
       <c r="D43">
-        <v>0.03595657677856771</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01593525975336748</v>
+      </c>
+      <c r="E43">
+        <v>-0.04322259082789985</v>
+      </c>
+      <c r="F43">
+        <v>-0.0008028176752204538</v>
+      </c>
+      <c r="G43">
+        <v>0.01201164696253207</v>
+      </c>
+      <c r="H43">
+        <v>0.01795891886302112</v>
+      </c>
+      <c r="I43">
+        <v>0.05483520258735909</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.01622634544111609</v>
+        <v>0.006952222434402483</v>
       </c>
       <c r="C44">
-        <v>0.05525107071019432</v>
+        <v>-0.0744446882899419</v>
       </c>
       <c r="D44">
-        <v>0.0777820474687947</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03262779950239482</v>
+      </c>
+      <c r="E44">
+        <v>-0.09915199369249998</v>
+      </c>
+      <c r="F44">
+        <v>-0.04610924376097192</v>
+      </c>
+      <c r="G44">
+        <v>0.009583375080459811</v>
+      </c>
+      <c r="H44">
+        <v>-0.005035775974817194</v>
+      </c>
+      <c r="I44">
+        <v>0.02723432718768496</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1996,199 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.000870525479588551</v>
+        <v>-0.001734676913627244</v>
       </c>
       <c r="C46">
-        <v>0.04355621654927284</v>
+        <v>-0.05452274328022915</v>
       </c>
       <c r="D46">
-        <v>0.06970931446309882</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01950481958135237</v>
+      </c>
+      <c r="E46">
+        <v>-0.08655546754309822</v>
+      </c>
+      <c r="F46">
+        <v>-0.01937892041249928</v>
+      </c>
+      <c r="G46">
+        <v>-0.0130401215121437</v>
+      </c>
+      <c r="H46">
+        <v>0.04786235714953273</v>
+      </c>
+      <c r="I46">
+        <v>0.1144294031818243</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.04307394636669473</v>
+        <v>0.02754432280795776</v>
       </c>
       <c r="C47">
-        <v>0.1228682868744999</v>
+        <v>-0.1191956664681951</v>
       </c>
       <c r="D47">
-        <v>0.03920602514740367</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.00797237040783275</v>
+      </c>
+      <c r="E47">
+        <v>-0.01664820834411631</v>
+      </c>
+      <c r="F47">
+        <v>0.005057919590952716</v>
+      </c>
+      <c r="G47">
+        <v>0.01134823346603058</v>
+      </c>
+      <c r="H47">
+        <v>-0.007056400119090553</v>
+      </c>
+      <c r="I47">
+        <v>0.09095096733851413</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.006849432405378324</v>
+        <v>0.0131350485703348</v>
       </c>
       <c r="C48">
-        <v>0.03429111758857082</v>
+        <v>-0.04806287851260849</v>
       </c>
       <c r="D48">
-        <v>0.04192317636488728</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.0002206587783688213</v>
+      </c>
+      <c r="E48">
+        <v>-0.07582797046664393</v>
+      </c>
+      <c r="F48">
+        <v>-0.04810355181158227</v>
+      </c>
+      <c r="G48">
+        <v>-0.0002860154140535911</v>
+      </c>
+      <c r="H48">
+        <v>0.03034171686720818</v>
+      </c>
+      <c r="I48">
+        <v>0.1198939054153512</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.002801715064616751</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.006416529082782673</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.001413124770162171</v>
+      </c>
+      <c r="E49">
+        <v>-0.004013511627359512</v>
+      </c>
+      <c r="F49">
+        <v>0.01299393910813747</v>
+      </c>
+      <c r="G49">
+        <v>-0.008542186046255028</v>
+      </c>
+      <c r="H49">
+        <v>0.01416936876911872</v>
+      </c>
+      <c r="I49">
+        <v>-0.009495394667490014</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.01118942645773849</v>
+        <v>0.009305430882235514</v>
       </c>
       <c r="C50">
-        <v>0.06491675732846078</v>
+        <v>-0.07812475797929955</v>
       </c>
       <c r="D50">
-        <v>0.04698937342775253</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.01715269486670242</v>
+      </c>
+      <c r="E50">
+        <v>-0.03624945658504454</v>
+      </c>
+      <c r="F50">
+        <v>-0.0109534211045619</v>
+      </c>
+      <c r="G50">
+        <v>0.01017640532297517</v>
+      </c>
+      <c r="H50">
+        <v>-0.01548307012313453</v>
+      </c>
+      <c r="I50">
+        <v>0.06260578270755843</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.002103882925258812</v>
+        <v>-0.006345884787667047</v>
       </c>
       <c r="C51">
-        <v>0.01876393764159979</v>
+        <v>-0.02800046383318204</v>
       </c>
       <c r="D51">
-        <v>0.06294920393731643</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01505889823574981</v>
+      </c>
+      <c r="E51">
+        <v>-0.05849467561052899</v>
+      </c>
+      <c r="F51">
+        <v>-0.05246433078627113</v>
+      </c>
+      <c r="G51">
+        <v>-0.01680141221495554</v>
+      </c>
+      <c r="H51">
+        <v>-8.639742228446725e-05</v>
+      </c>
+      <c r="I51">
+        <v>0.1013900852614926</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.08176741305043066</v>
+        <v>0.06067329895058995</v>
       </c>
       <c r="C53">
-        <v>0.1566463632077353</v>
+        <v>-0.1631290469825517</v>
       </c>
       <c r="D53">
-        <v>-0.005604966487378816</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.04336252229326965</v>
+      </c>
+      <c r="E53">
+        <v>0.0455185961306509</v>
+      </c>
+      <c r="F53">
+        <v>0.02393237274005212</v>
+      </c>
+      <c r="G53">
+        <v>0.01404185175765003</v>
+      </c>
+      <c r="H53">
+        <v>-0.03513654557320858</v>
+      </c>
+      <c r="I53">
+        <v>0.02060991345115872</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.002880550189321039</v>
+        <v>0.01105869410468818</v>
       </c>
       <c r="C54">
-        <v>0.03830788253507459</v>
+        <v>-0.05484741960996938</v>
       </c>
       <c r="D54">
-        <v>0.07949703939070379</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.04514273058371382</v>
+      </c>
+      <c r="E54">
+        <v>-0.05904362467075486</v>
+      </c>
+      <c r="F54">
+        <v>-0.01136345264118128</v>
+      </c>
+      <c r="G54">
+        <v>0.004378975292625837</v>
+      </c>
+      <c r="H54">
+        <v>0.003296566897261243</v>
+      </c>
+      <c r="I54">
+        <v>0.09287852552372092</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.05725572233187544</v>
+        <v>0.03710948031814602</v>
       </c>
       <c r="C55">
-        <v>0.1168852753118645</v>
+        <v>-0.1176735224452604</v>
       </c>
       <c r="D55">
-        <v>-0.004227118671468477</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.05275849050650203</v>
+      </c>
+      <c r="E55">
+        <v>0.01900324560514192</v>
+      </c>
+      <c r="F55">
+        <v>0.03355212567955632</v>
+      </c>
+      <c r="G55">
+        <v>0.002482250353361866</v>
+      </c>
+      <c r="H55">
+        <v>-0.04310376301472747</v>
+      </c>
+      <c r="I55">
+        <v>0.02331211321859192</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.08831836718649765</v>
+        <v>0.05721236599597476</v>
       </c>
       <c r="C56">
-        <v>0.1779204402727348</v>
+        <v>-0.1879666814862288</v>
       </c>
       <c r="D56">
-        <v>0.02485410732353218</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05215045915885341</v>
+      </c>
+      <c r="E56">
+        <v>0.03572987125864282</v>
+      </c>
+      <c r="F56">
+        <v>0.06819581757365081</v>
+      </c>
+      <c r="G56">
+        <v>0.01871568515405308</v>
+      </c>
+      <c r="H56">
+        <v>-0.1211641286179462</v>
+      </c>
+      <c r="I56">
+        <v>0.01608106849638238</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,178 +2344,373 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.01693413606505895</v>
+        <v>0.01044046094660402</v>
       </c>
       <c r="C58">
-        <v>0.05892789931092567</v>
+        <v>-0.1085709909985635</v>
       </c>
       <c r="D58">
-        <v>0.1752415515088397</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.1509625529422632</v>
+      </c>
+      <c r="E58">
+        <v>-0.145105651878524</v>
+      </c>
+      <c r="F58">
+        <v>-0.2703043305086746</v>
+      </c>
+      <c r="G58">
+        <v>0.06743341169591549</v>
+      </c>
+      <c r="H58">
+        <v>-0.1218503172917143</v>
+      </c>
+      <c r="I58">
+        <v>-0.0638708831793124</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.2345859925131558</v>
+        <v>0.2673846503065437</v>
       </c>
       <c r="C59">
-        <v>-0.07367912643336774</v>
+        <v>0.04859323733753535</v>
       </c>
       <c r="D59">
-        <v>0.05264132196247041</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02231717770899926</v>
+      </c>
+      <c r="E59">
+        <v>-0.0273286515765768</v>
+      </c>
+      <c r="F59">
+        <v>-0.02666369990650751</v>
+      </c>
+      <c r="G59">
+        <v>-0.01817243324023463</v>
+      </c>
+      <c r="H59">
+        <v>-0.003347133988169811</v>
+      </c>
+      <c r="I59">
+        <v>-0.02494958893954302</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1472186097989265</v>
+        <v>0.1500479692998569</v>
       </c>
       <c r="C60">
-        <v>0.1260531526388177</v>
+        <v>-0.1546143418510961</v>
       </c>
       <c r="D60">
-        <v>0.09009060468721994</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03671887089552444</v>
+      </c>
+      <c r="E60">
+        <v>-0.07255377248783344</v>
+      </c>
+      <c r="F60">
+        <v>0.2048303988915396</v>
+      </c>
+      <c r="G60">
+        <v>-0.1099383182448871</v>
+      </c>
+      <c r="H60">
+        <v>0.2092507974484674</v>
+      </c>
+      <c r="I60">
+        <v>-0.2706294495051114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.01817154728497117</v>
+        <v>0.01620176531826985</v>
       </c>
       <c r="C61">
-        <v>0.06820606046469851</v>
+        <v>-0.09084595434189907</v>
       </c>
       <c r="D61">
-        <v>0.07433470366603111</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.02190470768547428</v>
+      </c>
+      <c r="E61">
+        <v>-0.07568840064740393</v>
+      </c>
+      <c r="F61">
+        <v>0.01495558499528793</v>
+      </c>
+      <c r="G61">
+        <v>-0.001357834826797515</v>
+      </c>
+      <c r="H61">
+        <v>0.02859973868342584</v>
+      </c>
+      <c r="I61">
+        <v>0.06528724678332326</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.0002830381301429743</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.001085246508927119</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.0002835757858400216</v>
+      </c>
+      <c r="E62">
+        <v>0.0004261124655765991</v>
+      </c>
+      <c r="F62">
+        <v>-0.001753191526415647</v>
+      </c>
+      <c r="G62">
+        <v>0.0003033539437282014</v>
+      </c>
+      <c r="H62">
+        <v>-0.0009105702177436562</v>
+      </c>
+      <c r="I62">
+        <v>0.002741352423479951</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.003000105779570007</v>
+        <v>0.01699197040563051</v>
       </c>
       <c r="C63">
-        <v>0.04689211340103827</v>
+        <v>-0.06324664013253081</v>
       </c>
       <c r="D63">
-        <v>0.05877591316112005</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01059742955044084</v>
+      </c>
+      <c r="E63">
+        <v>-0.07434680099087405</v>
+      </c>
+      <c r="F63">
+        <v>-0.007615786817900259</v>
+      </c>
+      <c r="G63">
+        <v>-0.004460878259697055</v>
+      </c>
+      <c r="H63">
+        <v>0.02883373683903072</v>
+      </c>
+      <c r="I63">
+        <v>0.07744352503701626</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.03121010846691333</v>
+        <v>0.01673977726390485</v>
       </c>
       <c r="C64">
-        <v>0.1100352117946103</v>
+        <v>-0.1075287696044961</v>
       </c>
       <c r="D64">
-        <v>0.01758107402026409</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01145508797048911</v>
+      </c>
+      <c r="E64">
+        <v>-0.02693528071015707</v>
+      </c>
+      <c r="F64">
+        <v>-0.01838776816442865</v>
+      </c>
+      <c r="G64">
+        <v>0.01767337706935712</v>
+      </c>
+      <c r="H64">
+        <v>0.05886247431290136</v>
+      </c>
+      <c r="I64">
+        <v>-0.01602965851500709</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.01858910379045737</v>
+        <v>0.02375398620094713</v>
       </c>
       <c r="C65">
-        <v>0.03907241345431202</v>
+        <v>-0.0632726137399096</v>
       </c>
       <c r="D65">
-        <v>0.08163963937490663</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.06284591603816865</v>
+      </c>
+      <c r="E65">
+        <v>-0.09003782780755663</v>
+      </c>
+      <c r="F65">
+        <v>-0.004934373617345326</v>
+      </c>
+      <c r="G65">
+        <v>0.0041626929946315</v>
+      </c>
+      <c r="H65">
+        <v>0.09292919019844241</v>
+      </c>
+      <c r="I65">
+        <v>-0.02350020632523761</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.01857058517318778</v>
+        <v>0.01133015033827241</v>
       </c>
       <c r="C66">
-        <v>0.09785901094707712</v>
+        <v>-0.1294482043382937</v>
       </c>
       <c r="D66">
-        <v>0.1324889539658333</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.06332254141479607</v>
+      </c>
+      <c r="E66">
+        <v>-0.102935418100754</v>
+      </c>
+      <c r="F66">
+        <v>-0.01071393412293521</v>
+      </c>
+      <c r="G66">
+        <v>-0.00329040742173538</v>
+      </c>
+      <c r="H66">
+        <v>0.008447388153338885</v>
+      </c>
+      <c r="I66">
+        <v>0.04618261948002614</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.01719131009438392</v>
+        <v>0.01768899656418828</v>
       </c>
       <c r="C67">
-        <v>0.0207226411624979</v>
+        <v>-0.04154204614881671</v>
       </c>
       <c r="D67">
-        <v>0.03599650034426031</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01263725459305855</v>
+      </c>
+      <c r="E67">
+        <v>-0.06198723374137399</v>
+      </c>
+      <c r="F67">
+        <v>0.02491523809149845</v>
+      </c>
+      <c r="G67">
+        <v>0.0396115700692324</v>
+      </c>
+      <c r="H67">
+        <v>0.01527707533186988</v>
+      </c>
+      <c r="I67">
+        <v>0.06429190986076019</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.2336745253219737</v>
+        <v>0.2772680757849559</v>
       </c>
       <c r="C68">
-        <v>-0.08551748828770614</v>
+        <v>0.05899872245092522</v>
       </c>
       <c r="D68">
-        <v>0.02347005906754064</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.04189152861819535</v>
+      </c>
+      <c r="E68">
+        <v>-0.01274020621314485</v>
+      </c>
+      <c r="F68">
+        <v>-0.04703668514855725</v>
+      </c>
+      <c r="G68">
+        <v>0.01474246502729212</v>
+      </c>
+      <c r="H68">
+        <v>-0.03858840714501474</v>
+      </c>
+      <c r="I68">
+        <v>-0.01195229998786724</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.03377061830814398</v>
+        <v>0.01373341654297946</v>
       </c>
       <c r="C69">
-        <v>0.1257082351953759</v>
+        <v>-0.1075307223262099</v>
       </c>
       <c r="D69">
-        <v>0.05086117088734021</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01790796938227895</v>
+      </c>
+      <c r="E69">
+        <v>-0.02775077993512649</v>
+      </c>
+      <c r="F69">
+        <v>0.01753003950064166</v>
+      </c>
+      <c r="G69">
+        <v>0.003485017571332357</v>
+      </c>
+      <c r="H69">
+        <v>-0.008723026372020749</v>
+      </c>
+      <c r="I69">
+        <v>0.0557341931810687</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2721,750 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.2527888966839897</v>
+        <v>0.2686133649907157</v>
       </c>
       <c r="C71">
-        <v>-0.1106630850116104</v>
+        <v>0.07789742958124753</v>
       </c>
       <c r="D71">
-        <v>0.0191896469192029</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01690015955871585</v>
+      </c>
+      <c r="E71">
+        <v>-0.01914070989357836</v>
+      </c>
+      <c r="F71">
+        <v>-0.01924756582468624</v>
+      </c>
+      <c r="G71">
+        <v>0.03080502470973634</v>
+      </c>
+      <c r="H71">
+        <v>-0.01062198175346489</v>
+      </c>
+      <c r="I71">
+        <v>0.07398684510726099</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.07945352098741329</v>
+        <v>0.06209174666272792</v>
       </c>
       <c r="C72">
-        <v>0.1162963159997004</v>
+        <v>-0.1341230017276292</v>
       </c>
       <c r="D72">
-        <v>0.08711105416414515</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.0165692326044665</v>
+      </c>
+      <c r="E72">
+        <v>-0.04973811175237679</v>
+      </c>
+      <c r="F72">
+        <v>0.02769853984573877</v>
+      </c>
+      <c r="G72">
+        <v>-0.01299876282612809</v>
+      </c>
+      <c r="H72">
+        <v>0.03305130755958331</v>
+      </c>
+      <c r="I72">
+        <v>-0.02652556124859697</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.1245259741923465</v>
+        <v>0.1447717815494375</v>
       </c>
       <c r="C73">
-        <v>0.1049240425783379</v>
+        <v>-0.1615484116662738</v>
       </c>
       <c r="D73">
-        <v>0.1283279900570094</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.04602382159095911</v>
+      </c>
+      <c r="E73">
+        <v>-0.1656948013111808</v>
+      </c>
+      <c r="F73">
+        <v>0.2946859497417267</v>
+      </c>
+      <c r="G73">
+        <v>-0.1331690034892411</v>
+      </c>
+      <c r="H73">
+        <v>0.3296630438467548</v>
+      </c>
+      <c r="I73">
+        <v>-0.282153726772062</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.06820236524772591</v>
+        <v>0.0473362811758873</v>
       </c>
       <c r="C74">
-        <v>0.1404266704991905</v>
+        <v>-0.1390591244541529</v>
       </c>
       <c r="D74">
-        <v>-0.04643072979801494</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.06335137187829985</v>
+      </c>
+      <c r="E74">
+        <v>0.04118976342250859</v>
+      </c>
+      <c r="F74">
+        <v>0.01801880014636256</v>
+      </c>
+      <c r="G74">
+        <v>0.01255674983236106</v>
+      </c>
+      <c r="H74">
+        <v>-0.02476353027029065</v>
+      </c>
+      <c r="I74">
+        <v>0.0264563477480253</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.1710379921211617</v>
+        <v>0.09650493930880485</v>
       </c>
       <c r="C75">
-        <v>0.2347678279301986</v>
+        <v>-0.2401062548667844</v>
       </c>
       <c r="D75">
-        <v>-0.01956182725841541</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1072388510061937</v>
+      </c>
+      <c r="E75">
+        <v>0.1024448308641794</v>
+      </c>
+      <c r="F75">
+        <v>0.1653457269431038</v>
+      </c>
+      <c r="G75">
+        <v>0.1234483638480385</v>
+      </c>
+      <c r="H75">
+        <v>-0.2126258755302529</v>
+      </c>
+      <c r="I75">
+        <v>0.01862212068676475</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.09034804327509262</v>
+        <v>0.05509355751738337</v>
       </c>
       <c r="C76">
-        <v>0.1661931984840114</v>
+        <v>-0.1732423455718968</v>
       </c>
       <c r="D76">
-        <v>0.01091008289767189</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0633656123569374</v>
+      </c>
+      <c r="E76">
+        <v>0.02633661768100528</v>
+      </c>
+      <c r="F76">
+        <v>0.09351616521940791</v>
+      </c>
+      <c r="G76">
+        <v>0.01091324325008611</v>
+      </c>
+      <c r="H76">
+        <v>-0.0715670493160999</v>
+      </c>
+      <c r="I76">
+        <v>0.04623336221747135</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.028772091074806</v>
+        <v>0.02464304169713558</v>
       </c>
       <c r="C77">
-        <v>0.08536373231618644</v>
+        <v>-0.1386191783991245</v>
       </c>
       <c r="D77">
-        <v>0.2609847337664288</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.8000789855697825</v>
+      </c>
+      <c r="E77">
+        <v>0.5515274905953961</v>
+      </c>
+      <c r="F77">
+        <v>0.08788885856903887</v>
+      </c>
+      <c r="G77">
+        <v>0.03079341070166036</v>
+      </c>
+      <c r="H77">
+        <v>0.06735288431167662</v>
+      </c>
+      <c r="I77">
+        <v>0.08369286414734502</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.02763254629512589</v>
+        <v>0.02517783252099776</v>
       </c>
       <c r="C78">
-        <v>0.09373485513925447</v>
+        <v>-0.1060258209310698</v>
       </c>
       <c r="D78">
-        <v>0.1173028060866419</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.01044668978165483</v>
+      </c>
+      <c r="E78">
+        <v>-0.09879071209965389</v>
+      </c>
+      <c r="F78">
+        <v>-0.05643351217195334</v>
+      </c>
+      <c r="G78">
+        <v>-0.02333695592033804</v>
+      </c>
+      <c r="H78">
+        <v>-0.09114594921624039</v>
+      </c>
+      <c r="I78">
+        <v>0.1029604994390819</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.08572762909611947</v>
+        <v>0.05565808020747572</v>
       </c>
       <c r="C79">
-        <v>0.3590012214949765</v>
+        <v>-0.2764789827803416</v>
       </c>
       <c r="D79">
-        <v>-0.6837161552672701</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.3183822291440133</v>
+      </c>
+      <c r="E79">
+        <v>0.4450153308020949</v>
+      </c>
+      <c r="F79">
+        <v>-0.5812532203677427</v>
+      </c>
+      <c r="G79">
+        <v>-0.06792244233614868</v>
+      </c>
+      <c r="H79">
+        <v>0.4517348545191985</v>
+      </c>
+      <c r="I79">
+        <v>-0.0962221434633137</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.002782016547712256</v>
+        <v>0.007679065926999179</v>
       </c>
       <c r="C80">
-        <v>0.05630026194716178</v>
+        <v>-0.05532302685492327</v>
       </c>
       <c r="D80">
-        <v>0.03784632539913963</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.002729477410577039</v>
+      </c>
+      <c r="E80">
+        <v>-0.0692731514860014</v>
+      </c>
+      <c r="F80">
+        <v>0.02223526083054863</v>
+      </c>
+      <c r="G80">
+        <v>-0.06824395425463971</v>
+      </c>
+      <c r="H80">
+        <v>0.02259165753422132</v>
+      </c>
+      <c r="I80">
+        <v>-0.02840088781717344</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.07811265287174154</v>
+        <v>0.03497998799129487</v>
       </c>
       <c r="C81">
-        <v>0.1613753959110094</v>
+        <v>-0.1584398666621782</v>
       </c>
       <c r="D81">
-        <v>-0.04478231606602092</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07329482504686391</v>
+      </c>
+      <c r="E81">
+        <v>0.0564903737208923</v>
+      </c>
+      <c r="F81">
+        <v>0.02622810698544927</v>
+      </c>
+      <c r="G81">
+        <v>0.02560727149064497</v>
+      </c>
+      <c r="H81">
+        <v>-0.07970703892978379</v>
+      </c>
+      <c r="I81">
+        <v>0.06423715208510612</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.1315485278479618</v>
+        <v>0.07206350252787738</v>
       </c>
       <c r="C82">
-        <v>0.2428492596380807</v>
+        <v>-0.2187136348485956</v>
       </c>
       <c r="D82">
-        <v>-0.00990322284540881</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.1088709558625299</v>
+      </c>
+      <c r="E82">
+        <v>0.0575613075308747</v>
+      </c>
+      <c r="F82">
+        <v>0.1065888791469675</v>
+      </c>
+      <c r="G82">
+        <v>0.0110602522121528</v>
+      </c>
+      <c r="H82">
+        <v>-0.135556000782496</v>
+      </c>
+      <c r="I82">
+        <v>0.0869269439054379</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.0005724978247427377</v>
+        <v>0.003139802870290846</v>
       </c>
       <c r="C83">
-        <v>0.05330264336905739</v>
+        <v>-0.01947610196979168</v>
       </c>
       <c r="D83">
-        <v>0.04126320168230355</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04378727396376289</v>
+      </c>
+      <c r="E83">
+        <v>0.05835344461814904</v>
+      </c>
+      <c r="F83">
+        <v>-0.08027499064252511</v>
+      </c>
+      <c r="G83">
+        <v>-0.8970343678371128</v>
+      </c>
+      <c r="H83">
+        <v>-0.2961189497943386</v>
+      </c>
+      <c r="I83">
+        <v>-0.05506846759203868</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.003039947175448369</v>
+        <v>-0.003019353785251926</v>
       </c>
       <c r="C84">
-        <v>0.01172763641686745</v>
+        <v>-0.02680235275993176</v>
       </c>
       <c r="D84">
-        <v>0.02291114605131</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.02414090136900791</v>
+      </c>
+      <c r="E84">
+        <v>-0.04635167053290602</v>
+      </c>
+      <c r="F84">
+        <v>-0.06056336570469795</v>
+      </c>
+      <c r="G84">
+        <v>0.05178838607400472</v>
+      </c>
+      <c r="H84">
+        <v>-0.03211042968513893</v>
+      </c>
+      <c r="I84">
+        <v>0.06817871791742802</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.08384464655823033</v>
+        <v>0.04815294075105182</v>
       </c>
       <c r="C85">
-        <v>0.1837419236287991</v>
+        <v>-0.1748341801595642</v>
       </c>
       <c r="D85">
-        <v>-0.08189190635392019</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1205030730417981</v>
+      </c>
+      <c r="E85">
+        <v>0.08408036835512202</v>
+      </c>
+      <c r="F85">
+        <v>0.03009271061736133</v>
+      </c>
+      <c r="G85">
+        <v>0.01957421593581985</v>
+      </c>
+      <c r="H85">
+        <v>-0.07161404560197471</v>
+      </c>
+      <c r="I85">
+        <v>0.02670002271351122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.02928492940742856</v>
+        <v>0.01775828184507977</v>
       </c>
       <c r="C86">
-        <v>0.028355354284293</v>
+        <v>-0.05685133464339361</v>
       </c>
       <c r="D86">
-        <v>0.08300521810633923</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05307500234723905</v>
+      </c>
+      <c r="E86">
+        <v>-0.03728263424188936</v>
+      </c>
+      <c r="F86">
+        <v>-0.07374955222314031</v>
+      </c>
+      <c r="G86">
+        <v>0.04187418106241166</v>
+      </c>
+      <c r="H86">
+        <v>-0.02760252557602772</v>
+      </c>
+      <c r="I86">
+        <v>0.05424944218906557</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.02453614786300888</v>
+        <v>0.01560705652668596</v>
       </c>
       <c r="C87">
-        <v>0.0706196692604391</v>
+        <v>-0.09031732717976612</v>
       </c>
       <c r="D87">
-        <v>0.1307292569198469</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.0791281057336191</v>
+      </c>
+      <c r="E87">
+        <v>-0.09029656660920241</v>
+      </c>
+      <c r="F87">
+        <v>-0.08653630435102636</v>
+      </c>
+      <c r="G87">
+        <v>0.01912837804267328</v>
+      </c>
+      <c r="H87">
+        <v>-0.04214749538040256</v>
+      </c>
+      <c r="I87">
+        <v>0.0351030155463555</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.03775191002330602</v>
+        <v>0.03698150476018448</v>
       </c>
       <c r="C88">
-        <v>0.07411875897189854</v>
+        <v>-0.08186225250858926</v>
       </c>
       <c r="D88">
-        <v>-0.001536029171258299</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.009923814869667199</v>
+      </c>
+      <c r="E88">
+        <v>-0.01709066312831574</v>
+      </c>
+      <c r="F88">
+        <v>0.02160349128362324</v>
+      </c>
+      <c r="G88">
+        <v>0.005145201566544658</v>
+      </c>
+      <c r="H88">
+        <v>0.01472522520215953</v>
+      </c>
+      <c r="I88">
+        <v>0.01852688371448926</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.4155019128520433</v>
+        <v>0.4083701126326109</v>
       </c>
       <c r="C89">
-        <v>-0.2198673661107135</v>
+        <v>0.1554639961334306</v>
       </c>
       <c r="D89">
-        <v>-0.02720891532589009</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.02238819499967731</v>
+      </c>
+      <c r="E89">
+        <v>-0.0113455716259717</v>
+      </c>
+      <c r="F89">
+        <v>-0.1152923238261224</v>
+      </c>
+      <c r="G89">
+        <v>-0.09354598714188717</v>
+      </c>
+      <c r="H89">
+        <v>-0.07731813258192509</v>
+      </c>
+      <c r="I89">
+        <v>0.008699361593152292</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.3122988773444826</v>
+        <v>0.3236908145576721</v>
       </c>
       <c r="C90">
-        <v>-0.1530329923609068</v>
+        <v>0.09986718741870963</v>
       </c>
       <c r="D90">
-        <v>0.06350115250044272</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.03693531644487304</v>
+      </c>
+      <c r="E90">
+        <v>-0.03891679029081786</v>
+      </c>
+      <c r="F90">
+        <v>-0.01332990858051575</v>
+      </c>
+      <c r="G90">
+        <v>0.01294355557058867</v>
+      </c>
+      <c r="H90">
+        <v>-0.02272330244078986</v>
+      </c>
+      <c r="I90">
+        <v>-0.005384851269420152</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.1036574145370283</v>
+        <v>0.06548685601678467</v>
       </c>
       <c r="C91">
-        <v>0.2155710137041158</v>
+        <v>-0.1881978755162336</v>
       </c>
       <c r="D91">
-        <v>-0.0843503191412338</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.09374434323985492</v>
+      </c>
+      <c r="E91">
+        <v>0.1132400927068043</v>
+      </c>
+      <c r="F91">
+        <v>0.01865687797415244</v>
+      </c>
+      <c r="G91">
+        <v>-0.01598704845406086</v>
+      </c>
+      <c r="H91">
+        <v>-0.05266224386010906</v>
+      </c>
+      <c r="I91">
+        <v>0.01636479473890541</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.3167375302688045</v>
+        <v>0.3425119778791301</v>
       </c>
       <c r="C92">
-        <v>-0.1612190871804548</v>
+        <v>0.1245304292629453</v>
       </c>
       <c r="D92">
-        <v>-0.01728882466617753</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.0249700896001878</v>
+      </c>
+      <c r="E92">
+        <v>0.01583515561186309</v>
+      </c>
+      <c r="F92">
+        <v>-0.06841966988940365</v>
+      </c>
+      <c r="G92">
+        <v>0.09776701835597151</v>
+      </c>
+      <c r="H92">
+        <v>0.01777097108884611</v>
+      </c>
+      <c r="I92">
+        <v>0.0419301203143017</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.3182852137990879</v>
+        <v>0.3242317335100034</v>
       </c>
       <c r="C93">
-        <v>-0.1559234329749179</v>
+        <v>0.1174109377760536</v>
       </c>
       <c r="D93">
-        <v>-0.04576009734428416</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.03002953979356963</v>
+      </c>
+      <c r="E93">
+        <v>0.01840042534999212</v>
+      </c>
+      <c r="F93">
+        <v>-0.0265221197036965</v>
+      </c>
+      <c r="G93">
+        <v>0.02057414819002044</v>
+      </c>
+      <c r="H93">
+        <v>-0.003163141295638887</v>
+      </c>
+      <c r="I93">
+        <v>0.0471802173422353</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.1701927052788898</v>
+        <v>0.1138064227019055</v>
       </c>
       <c r="C94">
-        <v>0.2635953372173719</v>
+        <v>-0.2584290287502461</v>
       </c>
       <c r="D94">
-        <v>-0.07063819920475888</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.1682944963495747</v>
+      </c>
+      <c r="E94">
+        <v>0.1953981941811352</v>
+      </c>
+      <c r="F94">
+        <v>0.197986537869335</v>
+      </c>
+      <c r="G94">
+        <v>0.09541471420259579</v>
+      </c>
+      <c r="H94">
+        <v>-0.3978312831890074</v>
+      </c>
+      <c r="I94">
+        <v>-0.1123890137391244</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.03743409874881787</v>
+        <v>0.03747086790483797</v>
       </c>
       <c r="C95">
-        <v>0.04775686065958003</v>
+        <v>-0.09066729393245196</v>
       </c>
       <c r="D95">
-        <v>0.06898708994001622</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.04632867931784084</v>
+      </c>
+      <c r="E95">
+        <v>-0.07474237403203519</v>
+      </c>
+      <c r="F95">
+        <v>0.0925752320362672</v>
+      </c>
+      <c r="G95">
+        <v>0.03397485140260104</v>
+      </c>
+      <c r="H95">
+        <v>0.05701157928517794</v>
+      </c>
+      <c r="I95">
+        <v>0.09243115785874481</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3475,83 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002203490231278584</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.00155407811673785</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.003217197530227098</v>
+      </c>
+      <c r="E97">
+        <v>-0.00743018547058738</v>
+      </c>
+      <c r="F97">
+        <v>-0.0006601503808607278</v>
+      </c>
+      <c r="G97">
+        <v>0.007139207136761633</v>
+      </c>
+      <c r="H97">
+        <v>0.003623495516683091</v>
+      </c>
+      <c r="I97">
+        <v>0.001805893821490736</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.1083185892952945</v>
+        <v>0.1276502422617</v>
       </c>
       <c r="C98">
-        <v>0.1023293151703103</v>
+        <v>-0.1443622368181486</v>
       </c>
       <c r="D98">
-        <v>0.1158900854007592</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.02821497221572139</v>
+      </c>
+      <c r="E98">
+        <v>-0.1337551142102818</v>
+      </c>
+      <c r="F98">
+        <v>0.2220944669807497</v>
+      </c>
+      <c r="G98">
+        <v>-0.08694102641027268</v>
+      </c>
+      <c r="H98">
+        <v>0.2943427864375724</v>
+      </c>
+      <c r="I98">
+        <v>-0.309876664070888</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3562,25 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3591,83 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.003882700302640742</v>
+        <v>0.003610353118998071</v>
       </c>
       <c r="C101">
-        <v>0.03571753202523866</v>
+        <v>-0.0595805364407669</v>
       </c>
       <c r="D101">
-        <v>0.06956692734883048</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03992955394426356</v>
+      </c>
+      <c r="E101">
+        <v>-0.1111995872605801</v>
+      </c>
+      <c r="F101">
+        <v>-0.02593579955621748</v>
+      </c>
+      <c r="G101">
+        <v>-0.05843099865290525</v>
+      </c>
+      <c r="H101">
+        <v>0.07612595771679216</v>
+      </c>
+      <c r="I101">
+        <v>0.1767876395096517</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.05883020337606962</v>
+        <v>0.02174890530563246</v>
       </c>
       <c r="C102">
-        <v>0.1218008433006289</v>
+        <v>-0.0877994598950719</v>
       </c>
       <c r="D102">
-        <v>0.003337071615256225</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.04523249759230246</v>
+      </c>
+      <c r="E102">
+        <v>0.04429571192086705</v>
+      </c>
+      <c r="F102">
+        <v>0.0408110058796645</v>
+      </c>
+      <c r="G102">
+        <v>-0.007275653578860578</v>
+      </c>
+      <c r="H102">
+        <v>-0.06332180362336479</v>
+      </c>
+      <c r="I102">
+        <v>0.0116808124104893</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
